--- a/projects/sdr/Resultat.xlsx
+++ b/projects/sdr/Resultat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\riniga\python\projects\sdr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719A6EC5-9391-41AA-99BF-8C03C6225C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C86C1E-BB5D-42E8-9916-950DE137A122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="4" xr2:uid="{8BC11F90-1612-43CD-894B-79950F3E0CED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="6" xr2:uid="{8BC11F90-1612-43CD-894B-79950F3E0CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3990" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4978" uniqueCount="755">
   <si>
     <t>10/12/24, 9:06 AM Utdelare Distrikt 825-4239 Havsbaden Totalt antal hushåll: 511 2024 vecka 41 (Block 1) 1/25 https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 10/12/24, 9:06 AM KATEGORI Utdelare ANTAL HUSHÅLL ADRESS Lådsamling nr 1 vid infarten till Första Tvärgatan 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 KLITTERBYG 1 KLITTERBYG 3 KLITTERBYG 5 KLITTERBYG 7 KLITTERBYG 9 FÖRSTA TVÄRG 1 FÖRSTA TVÄRG 3 FÖRSTA TVÄRG 5 FÖRSTA TVÄRG 7 FÖRSTA TVÄRG 9 GÅNGORDNING 0001 0002 0003 0004 0005 0006 0007 0008 0009 0010 FÖRSTA TVÄRG 11 FÖRSTA TVÄRG 13 FÖRSTA TVÄRG 2 FÖRSTA TVÄRG 4 FÖRSTA TVÄRG 6 FÖRSTA TVÄRG 8 FÖRSTA TVÄRG 10 FÖRSTA TVÄRG 12 Lådsamling nr 2 vid infarten till Andra Tvärgatan 1 RÅBOCKAV 42 Förvaltningskontor, ingen delning. KLITTERBYG 11 KLITTERBYG 13 0011 0012 0013 0014 0015 0016 0017 0018 0019 0020 2/25 https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 0021 0 0022 0 0023 0 0024 0 0025 0 0026 1 0027 0 0028 0 0029 0 0030 1 0031 1 0032 0 0033 0 0034 1 0035 0 0036 0 0037 1 0038 1 0039 0 0040 1 0041 0 0041 0 0041 1 0041 0 0041 KLITTERBYG 15 ANDRA TVÄRG 1 ANDRA TVÄRG 3 ANDRA TVÄRG 5 ANDRA TVÄRG 7 ANDRA TVÄRG 9 ANDRA TVÄRG 11 ANDRA TVÄRG 2 ANDRA TVÄRG 4 ANDRA TVÄRG 6 ANDRA TVÄRG 8 ANDRA TVÄRG 10 ANDRA TVÄRG 12 Lådsamling nr 3 vid infarten till Fjärde Tvärgatan FJÄRDE TVÄRG 1 FJÄRDE TVÄRG 3 FJÄRDE TVÄRG 5 FJÄRDE TVÄRG 7 FJÄRDE TVÄRG 9 FJÄRDE TVÄRG 11 KLITTERBYG 21 KLITTERBYG 23 KLITTERBYG 25 KLITTERBYG 27 KLITTERBYG 29 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 3/25 1 0041 0 0042 0 0043 0 0044 0 0045 0 0046 0 0047 0 0048 0 0049 0 0050 0 0051 0 0052 0 0053 0 0054 0 0055 0 0056 0 0057 1 0058 0 0059 0 0060 0 0061 0 0062 0 0063 0 0064 TREDJE TVÄRG 10 FJÄRDE TVÄRG 2 FJÄRDE TVÄRG 4 FJÄRDE TVÄRG 6 FJÄRDE TVÄRG 8 FJÄRDE TVÄRG 10 FJÄRDE TVÄRG 12 KLITTERBYG 28 Lådsamling nr 4 vid infarten till Femte Tvärgatan KLITTERBYG 31 KLITTERBYG 33 KLITTERBYG 35 KLITTERBYG 37 KLITTERBYG 39 KLITTERBYG 41 FEMTE TVÄRG 1 FEMTE TVÄRG 3 FEMTE TVÄRG 5 FEMTE TVÄRG 7 FEMTE TVÄRG 9 FEMTE TVÄRG 11 FEMTE TVÄRG 2 FEMTE TVÄRG 4 FEMTE TVÄRG 6 FEMTE TVÄRG 8 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 4/25 1 0065 0 0066 0 0067 0 0068 0 0069 0 0070 0 0071 0 0072 1 0073 0 0074 0 0075 1 0076 0 0077 0 0078 0 0079 0 0080 0 0081 1 0082 1 0083 0 0084 1 0085 0 0086 1 0087 FEMTE TVÄRG 10 FEMTE TVÄRG 12 Lådsamling nr 5 vid infarten till Sjätte Tvärgatan KLITTERBYG 43 KLITTERBYG 45 KLITTERBYG 47 KLITTERBYG 49 KLITTERBYG 51 Sväng höger KLITTERBYG 50 SJÄTTE TVÄRG 1 SJÄTTE TVÄRG 3 SJÄTTE TVÄRG 5 SJÄTTE TVÄRG 7 SJÄTTE TVÄRG 9 SJÄTTE TVÄRG 11 SJÄTTE TVÄRG 13 SJÄTTE TVÄRG 2 SJÄTTE TVÄRG 4 SJÄTTE TVÄRG 6 SJÄTTE TVÄRG 8 SJÄTTE TVÄRG 10 SJÄTTE TVÄRG 12 Lådsamling nr 6 vid infarten till Sjunde Tvärgatan SJUNDE TVÄRG 1 SJUNDE TVÄRG 3 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 5/25 1 0088 0 0089 0 0090 0 0091 1 0092 0 0093 0 0094 0 0095 0 0096 1 0097 0 0098 0 0099 0 0100 1 0101 1 0504 1 0505 1 0506 1 0507 1 0508 1 0509 1 0510 1 0511 1 0512 1 0513 SJUNDE TVÄRG 5 SJUNDE TVÄRG 7 SJUNDE TVÄRG 9 SJUNDE TVÄRG 11 SJUNDE TVÄRG 2 SJUNDE TVÄRG 4 SJUNDE TVÄRG 6 SJUNDE TVÄRG 8 SJUNDE TVÄRG 10 SJUNDE TVÄRG 12 KLITTERBYG 53 KLITTERBYG 55 KLITTERBYG 57 KLITTERBYG 59 Gå ut på Råbockavägen och sväng vänster. Följ vägen till rondellen där du svänger vänster igen. Åk rakt fram cirka 500 meter och sväng sedan höger och höger igen S KVICKV 2 S KVICKV 4 S KVICKV 6 S KVICKV 8 S KVICKV 10 S KVICKV 12 S KVICKV 14 S KVICKV 16 S KVICKV 18 S KVICKV 20 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 6/25 1 0514 1 0515 1 0516 1 0517 1 0518 1 0519 1 0520 1 0521 1 0522 1 0523 1 0524 1 0525 1 0526 1 0527 1 0540 1 0542 1 0545 1 0550 1 0555 1 0558 1 0560 1 0565 1 0570 S KVICKV 22 S KVICKV 24 S KVICKV 26 S KVICKV 28 S KVICKV 30 S KVICKV 32 S KVICKV 34 Korsa gatan och vänd tillbaka S KVICKV 19 S KVICKV 17 S KVICKV 15 S KVICKV 13 S KVICKV 11 S KVICKV 9 S KVICKV 7 Vänd sen Höger på Annavägen ANNAV 2 ANNAV 4 ANNAV 6 ANNAV 8 ANNAV 10 ANNAV 12 Höger på Strandbadenvägen STRANDBADENV 30 STRANDBADENV 32 STRANDBADENV 34 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 7/25 1 0575 1 0580 1 0585 1 0590 1 0595 1 0600 1 0605 1 0610 1 0615 1 0620 1 0625 1 0630 1 0635 1 0640 1 0645 1 0650 1 0655 1 0660 1 0665 1 0670 1 0675 1 0680 STRANDBADENV 36 Vänd sen Vänster på Annavägen ANNAV 17 ANNAV 15 ANNAV 13 ANNAV 11 ANNAV 9 ANNAV 7 ANNAV 5 ANNAV 3 ANNAV 1 Höger på Linfärjevägen LINFÄRJEV 4 LINFÄRJEV 6 LINFÄRJEV 8 LINFÄRJEV 10 LINFÄRJEV 12 Höger på Strandbadenvägen STRANDBADENV 26 STRANDBADENV 28 Vänd sen Vänster på Linfärjevägen LINFÄRJEV 17 LINFÄRJEV 15 LINFÄRJEV 13 LINFÄRJEV 11 LINFÄRJEV 9 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 8/25 1 0685 1 0690 1 0695 1 0700 1 0705 1 0710 1 0714 1 0715 1 0720 1 0725 1 0730 1 0735 1 0740 1 0745 1 0750 1 0755 1 0760 1 0765 1 0770 1 0775 1 0780 1 0785 LINFÄRJEV 7 Höger på Norra Kvickvägen sen Höger på Fribadenvägen FRIBADENV 8 FRIBADENV 10 FRIBADENV 12 FRIBADENV 14 FRIBADENV 16 STRANDBADENV 16 Höger på Strandbadenvägen STRANDBADENV 18 STRANDBADENV 20 STRANDBADENV 22 STRANDBADENV 24 Vänd sen vänster på Fribadenvägen FRIBADENV 21 FRIBADENV 19 FRIBADENV 17 FRIBADENV 15 FRIBADENV 13 FRIBADENV 11 FRIBADENV 9 FRIBADENV 7 FRIBADENV 5 FRIBADENV 3 FRIBADENV 1 Höger på Norra Kvickvägen, sen höger på Thorvaldsvägen 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 9/25 1 0790 1 0795 1 0800 1 0805 1 0810 1 0815 1 0820 1 0825 1 0830 1 0835 1 0840 1 0845 1 0850 1 0855 1 0860 1 0865 1 0870 1 0875 1 0880 1 0885 1 0890 1 0895 1 0900 THORVALDSV 2 THORVALDSV 4 THORVALDSV 6 THORVALDSV 8 THORVALDSV 10 THORVALDSV 12 THORVALDSV 14 THORVALDSV 16 Korsa vägen och vänd tillbaka THORVALDSV 15 THORVALDSV 13 THORVALDSV 11 THORVALDSV 9 THORVALDSV 7 THORVALDSV 5 THORVALDSV 3 THORVALDSV 1 Höger på Norra Kvickvägen N KVICKV 1 N KVICKV 3 N KVICKV 5 N KVICKV 7 N KVICKV 9 N KVICKV 11 Korsa gatan N KVICKV 6 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 10/25 1 0905 1 0907 1 0910 1 0915 1 0920 1 0925 1 0930 1 0935 1 0940 1 0945 1 0950 1 0955 1 0960 1 0963 1 0965 1 0970 1 0975 1 0980 1 0985 1 0990 1 0995 1 1000 N KVICKV 8 N KVICKV 10 N KVICKV 12 N KVICKV 14 MAJAV 2 MAJAV 4 Korsa vägen MAJAV 3 Sväng höger STRANDBADENV 10 STRANDBADENV 12 Vänd tillbaka STRANDBADENV 6 STRANDBADENV 4 STRANDBADENV 2 Sväng vänster N KVICKV 31 N KVICKV 29 N KVICKV 27 N KVICKV 25 N KVICKV 23 N KVICKV 21 N KVICKV 19 N KVICKV 15 N KVICKV 14 N KVICKV 13 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 11/25 0 1005 0 1010 1 1015 1 1020 0 1025 1 1030 0 1035 1 1040 0 1045 0 1050 1 1055 1 1060 1 1065 0 1070 1 1075 1 1080 1 1085 1 1090 0 1095 0 1100 1 1105 0 1110 0 1115 BACKSTIGEN 5 Gå tillbaka ut till Havsbadsvägen. Sväng höger. Följ vägen rakt fram och ta höger in på Hemvägen HEMV 2 HEMV 4 HEMV 6 HEMV 8 HEMV 10 HEMV 12 HEMV 14 HEMV 16 HEMV 18 HEMV 20 HEMV 22 HEMV 24 HEMV 26 HEMV 28 HEMV 30 HEMV 32 LUNTERTUNV 2 LUNTERTUNV 4 LUNTERTUNV 6 LUNTERTUNV 8 LUNTERTUNV 10 Sväng höger ner och dela till de 2 husen runt hörnet. Sen tilbaka till vägen ÄNGSTIGEN 4 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 12/25 0 1120 1 1125 1 1130 1 1135 1 1145 1 1150 1 1155 1 1160 0 1165 1 1170 1 1175 1 1180 1 1185 0 1190 0 1195 1 1200 0 1205 0 1210 1 1215 1 1220 0 1225 ÄNGSTIGEN 6 LUNTERTUNV 12 LUNTERTUNV 14 LUNTERTUNV 16 Sväng höger SALTSJÖV 12 SALTSJÖV 14 SALTSJÖV 16 SALTSJÖV 18 Vänd tillbaka SALTSJÖV 11 SALTSJÖV 9 SALTSJÖV 7 SALTSJÖV 5 SALTSJÖV 3 Sväng höger BADSTIGEN 4 BADSTIGEN 6 Sväng höger DANSKA STIGEN 7 DANSKA STIGEN 5 DANSKA STIGEN 3 DANSKA STIGEN 1 Vänd tillbaka och ta vänster på Saltsjövägen SALTSJÖV 2 SALTSJÖV 4 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 13/25 0 1230 0 1235 1 1240 0 1245 0 1250 0 1255 1 1265 1 1270 1 1275 1 1280 1 1285 1 1290 1 1295 1 1300 1 1305 1 1310 1 1315 1 1317 1 1320 1 1325 1 1330 SALTSJÖV 6 SALTSJÖV 8 SALTSJÖV 10 SJÖSTIGEN 7 SJÖSTIGEN 5 SJÖSTIGEN 3 LUNTERTUNV 5 Brevlåda innanför staketet VINTERV 19 VINTERV 17 VINTERV 15 Sväng vänster TVÄRSTIGEN 3 Korsa vägen och vänd tillbaka TVÄRSTIGEN 4 Sväng vänster VINTERV 13 VINTERV 11 VINTERV 9 VINTERV 5 VINTERV 3 VINTERV 1 Gå ner till Vintervägen 2. Korsa gatan och vänd tillbaka VINTERV 2 VINTERV 4 VINTERV 6 Postlåda sitter i busken/staktet. Gömd 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 14/25 1 1335 1 1340 1 1345 1 1350 1 1355 0 1360 1 1365 1 1370 1 1375 1 1380 1 1385 1 1390 1 1395 1 1400 0 1405 1 1410 1 1415 1 1420 1 1425 1 1430 1 1435 1 1440 0 1445 Sväng höger VINTERV 8 Korsa vägen och vänd tillbaka. Sväng höger VINTERV 10 VINTERV 12 VINTERV 14 VINTERV 16 VINTERV 18 VINTERV 20 Sväng höger HEMV 31 HEMV 29 HEMV 27 HEMV 25 HEMV 23 HEMV 21 HEMV 19 HEMV 17 HEMV 15 HEMV 13 HEMV 11 HEMV 9 HEMV 7 HEMV 5 HEMV 3 HEMV 1 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 15/25 0 1450 1 1455 0 1460 0 1465 1 1470 1 1475 1 1480 1 1485 1 1490 1 1495 0 1500 1 1505 1 1510 0 1515 0 1520 0 1525 0 1530 1 1535 1 1540 1 1545 1 1550 Sväng höger sen höger igen HASSELSTIGEN 8 HASSELSTIGEN 10 HASSELSTIGEN 12 HASSELSTIGEN 14 HASSELSTIGEN 16 HASSELSTIGEN 18 MISSA INTE DENNA ADRESS! HASSELSTIGEN 20 HASSELSTIGEN 22 Korsa vägen och vänd tillbaka HASSELSTIGEN 15 HASSELSTIGEN 13 Dela inte till denna adress!! HASSELSTIGEN 9 HASSELSTIGEN 5 HAVSBADSV 106 Korsa gatan rakt över. In på Vårvägen VÅRV 2 VÅRV 4 VÅRV 6 VÅRV 8 VÅRV 10 VÅRV 12 VÅRV 14 VÅRV 16 Korsa vägen och vänd tillbaka 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 16/25 1 1555 0 1560 1 1565 0 1570 0 1575 0 1580 1 1585 0 1590 0 1595 1 1600 1 1605 0 1610 0 1615 1 1620 1 1625 1 1630 1 1635 1 1640 1 1645 0 1650 VÅRV 21 VÅRV 19 VÅRV 17 Sväng höger BJÖRKSTIGEN 9 Sväng höger TALLSTIGEN 2 TALLSTIGEN 4 TALLSTIGEN 6 TALLSTIGEN 8 TALLSTIGEN 10 Korsa vägen och vänd tillbaka TALLSTIGEN 9 TALLSTIGEN 7 TALLSTIGEN 5 TALLSTIGEN 3 TALLSTIGEN 1 Dela inte här! Sur gubbe Rakt över gatan och sväng vänster BJÖRKSTIGEN 6 BJÖRKSTIGEN 8 BJÖRKSTIGEN 10 Sväng höger VÅRV 11 VÅRV 9 Sväng höger JÄGARESTIGEN 7 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 17/25 1 1655 1 1660 0 1665 1 1670 0 1675 0 1680 1 1685 1 1690 1 1695 1 1700 0 1705 0 1710 0 1715 0 1720 0 1725 0 1730 0 1735 0 1740 0 1745 0 1750 JÄGARESTIGEN 5 JÄGARESTIGEN 6 KOrsa vägen och vänd tillbaka JÄGARESTIGEN 8 JÄGARESTIGEN 10 Sväng höger VÅRV 5 VÅRV 3 Sväng höger HAVSBADSV 107 HAVSBADSV 105 HAVSBADSV 103 Sväng höger på Hemvägen. HAVSBADSV 102 Brevlåda på insidan av staketet på höger sida ut mot Havsbadsvägen Sväng höger SOMMARV 4 SOMMARV 6 SOMMARV 8 SOMMARV 10 SOMMARV 12 SOMMARV 14 SOMMARV 16 SOMMARV 18 SOMMARV 20 SOMMARV 22 Korsa vägen och vänd tillbaka 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 18/25 0 1755 0 1760 0 1765 0 1770 0 1775 1 1780 0 1785 0 1790 1 1795 0 1800 1 1805 0 1810 0 1815 0 1820 0 1825 0 1830 1 1835 1 1840 1 1845 1 1850 0 1855 1 1860 1 1865 SOMMARV 25 SOMMARV 23 SOMMARV 21 SOMMARV 19 SOMMARV 17 SOMMARV 15 SOMMARV 13 SOMMARV 11 SOMMARV 9 SOMMARV 7 SOMMARV 5 SOMMARV 3 SOMMARV 1B SOMMARV 1A HAVSBADSV 111 HAVSBADSV 113 HAVSBADSV 115 HAVSBADSV 117 HAVSBADSV 119 HAVSBADSV 121 Sväng vänster BJÖRKSTIGEN 15 BJÖRKSTIGEN 11 BJÖRKST 13 Korsa vägen och vänd tillbaka 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 19/25 1 1870 0 1875 0 1880 1 1885 1 1890 0 1895 1 1900 1 1905 1 1910 1 1915 1 1920 0 1925 1 1930 1 1935 0 1940 1 1945 1 1950 1 1955 0 1960 0 1965 1 1965 BJÖRKSTIGEN 14 BJÖRKSTIGEN 16 Sväng vänster HAVSBADSV 123 HAVSBADSV 125 HAVSBADSV 127 HAVSBADSV 129 HAVSBADSV 131 Sväng höger. Rakt fram till adress KLITTERV 32 KLITTERV 34 KLITTERV 38 KLITTERV 40 Sväng höger N VILLASTIGEN 15 N VILLASTIGEN 13 N VILLASTIGEN 11 N VILLASTIGEN 9 N VILLASTIGEN 7 Rakt fram KLITTERV 37 KLITTERV 35 Vänd tillbaka KLITTERV 33 KLITTERV 31 SJÖSTIGEN 1 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 20/25 1 1970 1 1975 0 1980 0 1985 1 1990 0 1995 0 2000 1 2005 1 2010 1 2015 0 2020 0 2025 1 2029 1 2030 0 2035 1 2040 0 2045 0 2050 0 2055 0 2060 1 2065 SJÖSTIGEN 2 SJÖSTIGEN 4 SJÖSTIGEN 6 SJÖSTIGEN 8 SJÖSTIGEN 10 Sväng höger SJÖSTIGEN 12 Sväng höger N VILLASTIGEN 3 HAVSSTIGEN 5 HAVSSTIGEN 3 HAVSSTIGEN 1 Sväng vänster. Rakt fram till kurvan där du svänger höger sen höger igen. Vänd längst ner på gatan. STRANDSTIGEN 5 STRANDSTIGEN 1 KLITTERV 25 Sväng höger KLITTERV 25A KLITTERV 23 HYTTSTIGEN 2 Sväng höger HYTTSTIGEN 4 HYTTSTIGEN 6A HYTTSTIGEN 6 Korsa vägen och vänd tillbaka HYTTSTIGEN 3 HYTTSTIGEN 1 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 21/25 0 2070 1 2075 0 2080 0 2085 0 2090 0 2095 0 2100 0 2105 0 2110 1 2115 0 2120 1 2125 0 2130 0 2135 0 2140 1 2145 1 2150 1 2155 Sväng höger KLITTERV 19 Sväng höger V VÅRV 8 Korsa vägen och vänd tillbaka V VÅRV 9 KLITTERV 17 Sväng höger sen höger igen BACKSTIGEN 2 BACKSTIGEN 4 BACKSTIGEN 6 Korsa vägen och vänd tillbaka BACKSTIGEN 3 Sväng höger KLITTERV 13 KLITTERV 11 Sväng höger DALSTIGEN 4 DALSTIGEN 6 Korsa vägen och vänd tillbaka DALSTIGEN 5 DALSTIGEN 3 Sväng höger KLITTERV 9 Sväng höger KLITTERV 7 KLITTERV 5A KLITTERV 5 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 22/25 1 2160 1 2165 0 2170 1 2175 0 2180 0 2185 1 2190 1 2195 0 2200 0 2205 0 2210 1 2215 1 2220 0 2225 1 2230 0 2235 0 2240 1 2245 1 2250 1 2255 0 2260 SOMMARV 34 SOMMARV 29 SOMMARV 27 Sväng höger KLITTERV 1 KLITTERV 3 Sväng höger SANDSTIGEN 2 SANDSTIGEN 4 Brevlåda i garaget Vänd tillbaka. Sväng vänster sen höger KLITTERV 2J KLITTERV 2I KLITTERV 2H KLITTERV 2G KLITTERV 2F KLITTERV 2E Nej tack till Gratistidning KLITTERV 2D KLITTERV 2C KLITTERV 2B KLITTERV 2A KLITTERV 4 KLITTERV 6 KLITTERV 8 Postlåda på Västra Tallstigen KLITTERV 10 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 23/25 0 2265 1 2270 0 2275 1 2280 2 2285 1 2290 0 2295 0 2300 0 2305 0 2310 1 2315 1 2320 1 2325 0 2330 0 2335 0 2340 0 2345 0 2350 1 2355 1 2360 KLITTERV 12 KLITTERV 14 KLITTERV 16 KLITTERV 18 KLITTERV 20 KLITTERV 22 KLITTERV 24 KLITTERV 26 Sväng höger sen höger igen VILLASTIGEN 21 Sväng höger FORNSTIGEN 2 Korsa gatan och vänd tillbaka FORNSTIGEN 1 Sväng höger VILLASTIGEN 15 Sväng höger V VÅRV 2 Korsa vägen och vänd tillbaka V VÅRV 5 V VÅRV 3 VILLASTIGEN 11 VILLASTIGEN 9 Sväng vänster V TALLSTIGEN 2 V TALLSTIGEN 4 V TALLSTIGEN 6 10/12/24, 9:06 AM Utdelare https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391 24/25 10/12/24, 9:06 AM Utdelare 2365 Korsa vägen och vänd tillbaka 0 1 0 1 0 0 0 V TALLSTIGEN 5 V TALLSTIGEN 3 V TALLSTIGEN 1 VILLASTIGEN 3 Glöm inte denna adress!! SOMMARV 26 SOMMARV 28 SOMMARV 30 2370 2375 2380 2385 2390 2395 25/25 https://utdelare.sdr.se/Distrikt/PrintAddressList/82542391</t>
   </si>
@@ -2333,7 +2335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2364,8 +2366,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2378,8 +2388,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2387,11 +2409,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2404,6 +2437,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2434,11 +2494,6 @@
       <filters>
         <filter val="-"/>
         <filter val="villa"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="Ja"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3174,7 +3229,7 @@
   <dimension ref="A1:A729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13694,10 +13749,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2362649B-3756-428D-A275-B029443B9783}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D597"/>
+    <sheetView topLeftCell="A574" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14130,7 +14188,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>227</v>
       </c>
@@ -14189,7 +14247,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>227</v>
       </c>
@@ -14265,7 +14323,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>227</v>
       </c>
@@ -14310,7 +14368,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -14358,7 +14416,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>227</v>
       </c>
@@ -14434,7 +14492,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>227</v>
       </c>
@@ -14689,7 +14747,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>227</v>
       </c>
@@ -14790,7 +14848,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>227</v>
       </c>
@@ -15065,7 +15123,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>227</v>
       </c>
@@ -15082,7 +15140,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>227</v>
       </c>
@@ -15158,7 +15216,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>227</v>
       </c>
@@ -15307,7 +15365,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>227</v>
       </c>
@@ -15366,7 +15424,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -15411,7 +15469,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>227</v>
       </c>
@@ -15442,7 +15500,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -15470,7 +15528,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>227</v>
       </c>
@@ -15484,7 +15542,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>227</v>
       </c>
@@ -15498,7 +15556,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>227</v>
       </c>
@@ -15540,7 +15598,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>227</v>
       </c>
@@ -15568,7 +15626,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>227</v>
       </c>
@@ -15610,7 +15668,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>227</v>
       </c>
@@ -15666,7 +15724,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>227</v>
       </c>
@@ -15764,7 +15822,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>227</v>
       </c>
@@ -15781,7 +15839,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>227</v>
       </c>
@@ -15874,7 +15932,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>227</v>
       </c>
@@ -15891,7 +15949,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>227</v>
       </c>
@@ -15925,7 +15983,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>227</v>
       </c>
@@ -16007,7 +16065,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>227</v>
       </c>
@@ -16041,7 +16099,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>227</v>
       </c>
@@ -16058,7 +16116,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>227</v>
       </c>
@@ -16075,7 +16133,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>227</v>
       </c>
@@ -16157,7 +16215,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>227</v>
       </c>
@@ -16191,7 +16249,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>227</v>
       </c>
@@ -16284,7 +16342,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>227</v>
       </c>
@@ -16326,7 +16384,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>227</v>
       </c>
@@ -16368,7 +16426,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>227</v>
       </c>
@@ -16382,7 +16440,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>227</v>
       </c>
@@ -16410,7 +16468,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>227</v>
       </c>
@@ -16424,7 +16482,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>227</v>
       </c>
@@ -16466,7 +16524,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>227</v>
       </c>
@@ -16480,7 +16538,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>227</v>
       </c>
@@ -16550,7 +16608,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>227</v>
       </c>
@@ -16564,7 +16622,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>227</v>
       </c>
@@ -16578,7 +16636,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>227</v>
       </c>
@@ -16620,7 +16678,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>227</v>
       </c>
@@ -16648,7 +16706,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>227</v>
       </c>
@@ -16662,7 +16720,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>227</v>
       </c>
@@ -16732,7 +16790,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -16746,7 +16804,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>227</v>
       </c>
@@ -16802,7 +16860,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -16858,7 +16916,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>227</v>
       </c>
@@ -16984,7 +17042,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>227</v>
       </c>
@@ -16998,7 +17056,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -17054,7 +17112,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -17096,7 +17154,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>227</v>
       </c>
@@ -17124,7 +17182,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>227</v>
       </c>
@@ -17264,7 +17322,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>227</v>
       </c>
@@ -17306,7 +17364,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>227</v>
       </c>
@@ -17334,7 +17392,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>227</v>
       </c>
@@ -17376,7 +17434,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>227</v>
       </c>
@@ -17468,7 +17526,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>227</v>
       </c>
@@ -17510,7 +17568,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>227</v>
       </c>
@@ -17594,7 +17652,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>227</v>
       </c>
@@ -17608,7 +17666,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>227</v>
       </c>
@@ -17650,7 +17708,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>227</v>
       </c>
@@ -17664,7 +17722,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>227</v>
       </c>
@@ -17681,7 +17739,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>227</v>
       </c>
@@ -17720,7 +17778,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>227</v>
       </c>
@@ -17927,7 +17985,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>227</v>
       </c>
@@ -17941,7 +17999,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>227</v>
       </c>
@@ -17969,7 +18027,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>227</v>
       </c>
@@ -18033,7 +18091,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>227</v>
       </c>
@@ -18231,7 +18289,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>227</v>
       </c>
@@ -18245,7 +18303,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>227</v>
       </c>
@@ -18273,7 +18331,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>227</v>
       </c>
@@ -18301,7 +18359,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>227</v>
       </c>
@@ -18329,7 +18387,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>227</v>
       </c>
@@ -18441,7 +18499,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>227</v>
       </c>
@@ -18556,7 +18614,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>227</v>
       </c>
@@ -18584,7 +18642,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>227</v>
       </c>
@@ -18640,7 +18698,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>227</v>
       </c>
@@ -18668,7 +18726,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>227</v>
       </c>
@@ -18696,7 +18754,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>227</v>
       </c>
@@ -18738,7 +18796,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>227</v>
       </c>
@@ -18752,7 +18810,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>227</v>
       </c>
@@ -18808,7 +18866,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>227</v>
       </c>
@@ -18861,7 +18919,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>227</v>
       </c>
@@ -18900,7 +18958,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>227</v>
       </c>
@@ -18942,7 +19000,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>227</v>
       </c>
@@ -18984,7 +19042,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>227</v>
       </c>
@@ -19101,7 +19159,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>227</v>
       </c>
@@ -19380,7 +19438,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>227</v>
       </c>
@@ -19481,7 +19539,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>227</v>
       </c>
@@ -19551,7 +19609,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>227</v>
       </c>
@@ -19579,7 +19637,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>227</v>
       </c>
@@ -20073,7 +20131,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>227</v>
       </c>
@@ -20087,7 +20145,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>227</v>
       </c>
@@ -20258,7 +20316,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>227</v>
       </c>
@@ -20535,7 +20593,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>227</v>
       </c>
@@ -20563,7 +20621,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>227</v>
       </c>
@@ -20663,7 +20721,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>227</v>
       </c>
@@ -20880,7 +20938,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>227</v>
       </c>
@@ -21080,7 +21138,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>227</v>
       </c>
@@ -21119,7 +21177,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>227</v>
       </c>
@@ -21211,7 +21269,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>227</v>
       </c>
@@ -21267,7 +21325,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>227</v>
       </c>
@@ -21387,7 +21445,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>227</v>
       </c>
@@ -21448,7 +21506,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>227</v>
       </c>
@@ -21509,7 +21567,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>227</v>
       </c>
@@ -21573,7 +21631,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>227</v>
       </c>
@@ -22015,8 +22073,3843 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E315B666-53AD-40C4-AE42-0A8D7EE3C635}">
+  <dimension ref="A1:C145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="68" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97449211-BDF7-477E-A27A-14BC3E4F1E2F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E224"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="H189" sqref="H189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="D2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="D5" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="D10" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="D17" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="D20" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="D21" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="D27" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="D33" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="D51" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="D60" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="D72" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="D81" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E84" s="12"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="12"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="D90" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E93" s="11"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="D97" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E98" s="12"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E99" s="11"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E102" s="12"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" s="11"/>
+      <c r="D105" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107" s="11"/>
+      <c r="D107" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E109" s="11"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B110" s="12"/>
+      <c r="D110" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E111" s="11"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B118" s="11"/>
+      <c r="D118" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E118" s="11"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E122" s="11"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B125" s="12"/>
+      <c r="D125" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E126" s="11"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" s="12"/>
+      <c r="D129" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E129" s="12"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B131" s="12"/>
+      <c r="D131" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E131" s="12"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E134" s="11"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E135" s="12"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137" s="12"/>
+      <c r="D137" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="E139" s="12"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E141" s="12"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E142" s="11"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E146" s="11"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E151" s="12"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B152" s="11"/>
+      <c r="D152" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E154" s="11"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E156" s="11"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B158" s="11"/>
+      <c r="D158" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E160" s="11"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B163" s="12"/>
+      <c r="D163" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E165" s="12"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B168" s="11"/>
+      <c r="D168" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="E169" s="12"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B171" s="12"/>
+      <c r="D171" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B172" s="11"/>
+      <c r="D172" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E172" s="11"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D174" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D175" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D176" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="D177" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B178" s="12"/>
+      <c r="D178" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E178" s="11"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B179" s="11"/>
+      <c r="D179" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E179" s="12"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E180" s="11"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D181" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E182" s="11"/>
+    </row>
+    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B183" s="11"/>
+      <c r="D183" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E184" s="11"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B185" s="11"/>
+      <c r="D185" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E186" s="11"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E187" s="12"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B188" s="12"/>
+      <c r="D188" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B189" s="11"/>
+      <c r="D189" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E190" s="11"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B191" s="11"/>
+      <c r="D191" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B192" s="12"/>
+      <c r="D192" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194" s="12"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B195" s="11"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" s="12"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B197" s="11"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B199" s="11"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201" s="11"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B202" s="12"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B203" s="11"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B209" s="11"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B211" s="11"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213" s="11"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B222" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="77" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>